--- a/tests/test_council_data.xlsx
+++ b/tests/test_council_data.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t xml:space="preserve">Record order number</t>
   </si>
@@ -49,22 +49,99 @@
     <t xml:space="preserve">PostCode</t>
   </si>
   <si>
+    <t xml:space="preserve">Address3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address4</t>
+  </si>
+  <si>
     <t xml:space="preserve">BW1</t>
   </si>
   <si>
-    <t xml:space="preserve">Bar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Test Road</t>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Foo Road</t>
   </si>
   <si>
     <t xml:space="preserve">London</t>
   </si>
   <si>
     <t xml:space="preserve">E1 1AA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">†1AA</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Foo Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flat 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 Foo Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Bar Road</t>
   </si>
 </sst>
 </file>
@@ -74,11 +151,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -102,6 +180,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,13 +256,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -208,31 +292,197 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_council_data.xlsx
+++ b/tests/test_council_data.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">BW1</t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
+    <t xml:space="preserve">O’A</t>
   </si>
   <si>
     <t xml:space="preserve">B </t>
@@ -203,8 +203,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,7 +216,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,272 +240,272 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="n">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1"/>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>36526</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
